--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437536.4518533506</v>
+        <v>433714.4295664447</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33305450.46443976</v>
+        <v>33264611.44939024</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6063412.656816708</v>
+        <v>6047974.096423145</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5058035.629629606</v>
+        <v>5070064.887975859</v>
       </c>
     </row>
     <row r="11">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.48781516894217</v>
+        <v>11.86905841516431</v>
       </c>
       <c r="C5" t="n">
-        <v>13.48781516894217</v>
+        <v>33.47872052229808</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>6.86990509438415</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>13.48781516894217</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.48781516894217</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>33.47872052229808</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>33.47872052229808</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>13.48781516894217</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>13.48781516894217</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>11.88006760080425</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>29.48805703604011</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>33.47872052229808</v>
       </c>
     </row>
     <row r="7">
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>13.48781516894217</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>11.88006760080425</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>13.48781516894217</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>13.48781516894217</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>33.47872052229808</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>33.47872052229808</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>33.47872052229808</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>8.500281151272558</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1214,22 +1214,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F9" t="n">
-        <v>41.31500304752735</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="G9" t="n">
-        <v>37.06736141641883</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>40.6378963153706</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1290,26 +1290,26 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="E10" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="X10" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>157.9757276510824</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>147.807430699595</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>135.6709649980182</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>67.81305593795599</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,16 +1612,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>186.0325948128203</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>176.1446634785937</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1767,22 +1767,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>124.9643551080483</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>165.7001673820014</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1852,13 +1852,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>23.00716224037895</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>41.26139198591394</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,25 +2004,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>55.96684102370138</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>62.50002140993289</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>350.018173670548</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2092,13 +2092,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>176.1446634785934</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2241,22 +2241,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>51.77925078256408</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -2295,13 +2295,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>61.49927723088027</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2323,13 +2323,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>378.4262688176743</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>139.4414240887039</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>112.2397558166173</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>240.6314278507031</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>110.700724512965</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>237.7477891567974</v>
       </c>
     </row>
     <row r="30">
@@ -2970,7 +2970,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>128.8614260558755</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>405.9318761756281</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3207,7 +3207,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3271,19 +3271,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>197.757068121172</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>157.6661220307665</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
@@ -3328,7 +3328,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>124.9554984777218</v>
       </c>
       <c r="U37" t="n">
-        <v>43.97954181326668</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.08630129332993</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3511,16 +3511,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>143.483380004472</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>31.6677553097647</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>85.1488807209182</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>170.0397027476126</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>177.9163405120051</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3906,19 +3906,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>85.14888072091732</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>25.47996054760977</v>
       </c>
     </row>
     <row r="44">
@@ -3985,16 +3985,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>296.0125566459565</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>128.3006595584389</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>65.03738524811791</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>266.3541040971099</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.64237901485509</v>
+        <v>121.9259341950869</v>
       </c>
       <c r="C5" t="n">
-        <v>8.018323288650878</v>
+        <v>88.10904477862424</v>
       </c>
       <c r="D5" t="n">
-        <v>8.018323288650878</v>
+        <v>56.23966399347282</v>
       </c>
       <c r="E5" t="n">
-        <v>1.079025213515373</v>
+        <v>26.50532319217205</v>
       </c>
       <c r="F5" t="n">
-        <v>1.079025213515373</v>
+        <v>2.678297641783846</v>
       </c>
       <c r="G5" t="n">
-        <v>1.079025213515373</v>
+        <v>2.678297641783846</v>
       </c>
       <c r="H5" t="n">
-        <v>1.079025213515373</v>
+        <v>2.678297641783846</v>
       </c>
       <c r="I5" t="n">
-        <v>2.319676963882172</v>
+        <v>2.678297641783846</v>
       </c>
       <c r="J5" t="n">
-        <v>5.950292136425527</v>
+        <v>3.577604429716773</v>
       </c>
       <c r="K5" t="n">
-        <v>11.39164314017418</v>
+        <v>4.925432183592655</v>
       </c>
       <c r="L5" t="n">
-        <v>18.14212021749356</v>
+        <v>6.59753169535837</v>
       </c>
       <c r="M5" t="n">
-        <v>25.65332664369545</v>
+        <v>8.45806458128161</v>
       </c>
       <c r="N5" t="n">
-        <v>33.28607224259785</v>
+        <v>10.34870283442633</v>
       </c>
       <c r="O5" t="n">
-        <v>40.49345747245825</v>
+        <v>34.48308213796703</v>
       </c>
       <c r="P5" t="n">
-        <v>46.64479401739352</v>
+        <v>67.62701545504213</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.26419158394373</v>
+        <v>100.7709487721172</v>
       </c>
       <c r="R5" t="n">
-        <v>53.95126067576867</v>
+        <v>133.9148820891923</v>
       </c>
       <c r="S5" t="n">
-        <v>53.95126067576867</v>
+        <v>133.9148820891923</v>
       </c>
       <c r="T5" t="n">
-        <v>53.95126067576867</v>
+        <v>133.9148820891923</v>
       </c>
       <c r="U5" t="n">
-        <v>53.95126067576867</v>
+        <v>133.9148820891923</v>
       </c>
       <c r="V5" t="n">
-        <v>53.95126067576867</v>
+        <v>133.9148820891923</v>
       </c>
       <c r="W5" t="n">
-        <v>53.13621012720603</v>
+        <v>133.9148820891923</v>
       </c>
       <c r="X5" t="n">
-        <v>39.51215440100182</v>
+        <v>133.9148820891923</v>
       </c>
       <c r="Y5" t="n">
-        <v>35.2664347410593</v>
+        <v>133.9148820891923</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.079025213515373</v>
+        <v>70.31207647470927</v>
       </c>
       <c r="C6" t="n">
-        <v>1.079025213515373</v>
+        <v>70.31207647470927</v>
       </c>
       <c r="D6" t="n">
-        <v>1.079025213515373</v>
+        <v>70.31207647470927</v>
       </c>
       <c r="E6" t="n">
-        <v>1.079025213515373</v>
+        <v>70.31207647470927</v>
       </c>
       <c r="F6" t="n">
-        <v>1.079025213515373</v>
+        <v>36.49518705824656</v>
       </c>
       <c r="G6" t="n">
-        <v>1.079025213515373</v>
+        <v>36.49518705824656</v>
       </c>
       <c r="H6" t="n">
-        <v>1.079025213515373</v>
+        <v>2.678297641783846</v>
       </c>
       <c r="I6" t="n">
-        <v>1.867038804705146</v>
+        <v>28.93716250884249</v>
       </c>
       <c r="J6" t="n">
-        <v>4.029408329268062</v>
+        <v>29.47278347086707</v>
       </c>
       <c r="K6" t="n">
-        <v>7.725242263896577</v>
+        <v>30.38824500741872</v>
       </c>
       <c r="L6" t="n">
-        <v>12.69474708324049</v>
+        <v>31.61919601828298</v>
       </c>
       <c r="M6" t="n">
-        <v>18.49392481101541</v>
+        <v>64.76312933535807</v>
       </c>
       <c r="N6" t="n">
-        <v>24.44658951725265</v>
+        <v>97.90706265243317</v>
       </c>
       <c r="O6" t="n">
-        <v>29.89211477601336</v>
+        <v>131.0509959695083</v>
       </c>
       <c r="P6" t="n">
-        <v>37.67675072119272</v>
+        <v>132.8392141621145</v>
       </c>
       <c r="Q6" t="n">
-        <v>40.59832365851592</v>
+        <v>133.562890522486</v>
       </c>
       <c r="R6" t="n">
-        <v>53.95126067576867</v>
+        <v>133.9148820891923</v>
       </c>
       <c r="S6" t="n">
-        <v>53.95126067576867</v>
+        <v>133.9148820891923</v>
       </c>
       <c r="T6" t="n">
-        <v>53.95126067576867</v>
+        <v>133.9148820891923</v>
       </c>
       <c r="U6" t="n">
-        <v>40.32720494956445</v>
+        <v>133.9148820891923</v>
       </c>
       <c r="V6" t="n">
-        <v>26.70314922336024</v>
+        <v>133.9148820891923</v>
       </c>
       <c r="W6" t="n">
-        <v>14.70308093971958</v>
+        <v>133.9148820891923</v>
       </c>
       <c r="X6" t="n">
-        <v>14.70308093971958</v>
+        <v>104.128965891172</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.70308093971958</v>
+        <v>70.31207647470927</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.32720494956445</v>
+        <v>2.678297641783846</v>
       </c>
       <c r="C7" t="n">
-        <v>40.32720494956445</v>
+        <v>2.678297641783846</v>
       </c>
       <c r="D7" t="n">
-        <v>40.32720494956445</v>
+        <v>2.678297641783846</v>
       </c>
       <c r="E7" t="n">
-        <v>40.32720494956445</v>
+        <v>2.678297641783846</v>
       </c>
       <c r="F7" t="n">
-        <v>26.70314922336024</v>
+        <v>2.678297641783846</v>
       </c>
       <c r="G7" t="n">
-        <v>14.70308093971958</v>
+        <v>2.678297641783846</v>
       </c>
       <c r="H7" t="n">
-        <v>1.079025213515373</v>
+        <v>2.678297641783846</v>
       </c>
       <c r="I7" t="n">
-        <v>1.079025213515373</v>
+        <v>2.678297641783846</v>
       </c>
       <c r="J7" t="n">
-        <v>13.41562551587736</v>
+        <v>35.82223095885894</v>
       </c>
       <c r="K7" t="n">
-        <v>26.7685625331301</v>
+        <v>68.96616427593403</v>
       </c>
       <c r="L7" t="n">
-        <v>29.62131490371308</v>
+        <v>69.67279371729117</v>
       </c>
       <c r="M7" t="n">
-        <v>32.62914229309563</v>
+        <v>70.41783538644373</v>
       </c>
       <c r="N7" t="n">
-        <v>35.56545026998345</v>
+        <v>71.14516162995386</v>
       </c>
       <c r="O7" t="n">
-        <v>38.27760594185725</v>
+        <v>71.81696513699927</v>
       </c>
       <c r="P7" t="n">
-        <v>40.59832365851592</v>
+        <v>100.7709487721172</v>
       </c>
       <c r="Q7" t="n">
-        <v>53.95126067576867</v>
+        <v>133.9148820891923</v>
       </c>
       <c r="R7" t="n">
-        <v>40.32720494956445</v>
+        <v>112.715108468215</v>
       </c>
       <c r="S7" t="n">
-        <v>40.32720494956445</v>
+        <v>112.715108468215</v>
       </c>
       <c r="T7" t="n">
-        <v>40.32720494956445</v>
+        <v>112.715108468215</v>
       </c>
       <c r="U7" t="n">
-        <v>40.32720494956445</v>
+        <v>78.89821905175225</v>
       </c>
       <c r="V7" t="n">
-        <v>40.32720494956445</v>
+        <v>45.08132963528954</v>
       </c>
       <c r="W7" t="n">
-        <v>40.32720494956445</v>
+        <v>11.26444021882683</v>
       </c>
       <c r="X7" t="n">
-        <v>40.32720494956445</v>
+        <v>2.678297641783846</v>
       </c>
       <c r="Y7" t="n">
-        <v>40.32720494956445</v>
+        <v>2.678297641783846</v>
       </c>
     </row>
     <row r="8">
@@ -4783,7 +4783,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
         <v>56.86656659549116</v>
@@ -4807,19 +4807,19 @@
         <v>18.98581709030266</v>
       </c>
       <c r="K8" t="n">
-        <v>35.56734164176019</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L8" t="n">
-        <v>56.13818908654176</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M8" t="n">
-        <v>79.02722044682884</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N8" t="n">
         <v>102.2866202642709</v>
       </c>
       <c r="O8" t="n">
-        <v>124.2498119529545</v>
+        <v>124.2498119529546</v>
       </c>
       <c r="P8" t="n">
         <v>142.9948879228476</v>
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="C9" t="n">
         <v>123.5276858794757</v>
       </c>
       <c r="D9" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="E9" t="n">
-        <v>123.5276858794757</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="F9" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>16.73554758011547</v>
+        <v>31.77020107089877</v>
       </c>
       <c r="J9" t="n">
-        <v>23.32497423834099</v>
+        <v>38.35962772912429</v>
       </c>
       <c r="K9" t="n">
-        <v>34.5873539456846</v>
+        <v>49.62200743646791</v>
       </c>
       <c r="L9" t="n">
-        <v>49.73101332618943</v>
+        <v>64.76566681697273</v>
       </c>
       <c r="M9" t="n">
-        <v>67.40294954297083</v>
+        <v>82.43760303375414</v>
       </c>
       <c r="N9" t="n">
-        <v>85.54260932692307</v>
+        <v>100.5772628177064</v>
       </c>
       <c r="O9" t="n">
-        <v>102.136854159046</v>
+        <v>117.1715076498293</v>
       </c>
       <c r="P9" t="n">
-        <v>115.4551986112916</v>
+        <v>130.4898521020749</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.3581591730573</v>
+        <v>139.3928126638406</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C10" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D10" t="n">
         <v>45.03752655443588</v>
       </c>
       <c r="E10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H10" t="n">
         <v>3.305200243802188</v>
@@ -4965,49 +4965,49 @@
         <v>7.439194768028656</v>
       </c>
       <c r="K10" t="n">
-        <v>14.23261768427069</v>
+        <v>48.34104778508073</v>
       </c>
       <c r="L10" t="n">
-        <v>22.9258601234117</v>
+        <v>57.07783833162382</v>
       </c>
       <c r="M10" t="n">
-        <v>63.82771314046379</v>
+        <v>66.24364360116697</v>
       </c>
       <c r="N10" t="n">
-        <v>104.7295661575158</v>
+        <v>75.19150650798248</v>
       </c>
       <c r="O10" t="n">
-        <v>145.6314191745679</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P10" t="n">
-        <v>160.3637509630746</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="V10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="W10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X10" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y10" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>755.070575821621</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="C11" t="n">
-        <v>316.9281030050443</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D11" t="n">
-        <v>316.9281030050443</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E11" t="n">
-        <v>316.9281030050443</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F11" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001358</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J11" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2200.756135375937</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>1941.685443897451</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V11" t="n">
-        <v>1579.068493831277</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W11" t="n">
-        <v>1174.21303924231</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X11" t="n">
-        <v>755.070575821621</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y11" t="n">
-        <v>755.070575821621</v>
+        <v>2170.560772612438</v>
       </c>
     </row>
     <row r="12">
@@ -5099,16 +5099,16 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E12" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G12" t="n">
         <v>79.1492015823585</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>616.081764785142</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="C13" t="n">
-        <v>616.081764785142</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="D13" t="n">
-        <v>450.2037719866647</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E13" t="n">
-        <v>280.445768237402</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F13" t="n">
-        <v>211.9477319364363</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
         <v>47.20655154895474</v>
@@ -5202,19 +5202,19 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>359.5348022487602</v>
+        <v>465.6045913582042</v>
       </c>
       <c r="L13" t="n">
-        <v>901.6154856350191</v>
+        <v>1007.685274744463</v>
       </c>
       <c r="M13" t="n">
-        <v>1485.796561053334</v>
+        <v>1138.289667082993</v>
       </c>
       <c r="N13" t="n">
-        <v>2055.554276014868</v>
+        <v>1708.047382044527</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P13" t="n">
         <v>2274.089213540314</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X13" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y13" t="n">
-        <v>807.9003835041292</v>
+        <v>890.8935156942559</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2182.403674944107</v>
+        <v>673.2607362976731</v>
       </c>
       <c r="C14" t="n">
-        <v>1744.26120212753</v>
+        <v>235.1182634810964</v>
       </c>
       <c r="D14" t="n">
-        <v>1308.351417301975</v>
+        <v>235.1182634810964</v>
       </c>
       <c r="E14" t="n">
-        <v>874.5766724602698</v>
+        <v>235.1182634810964</v>
       </c>
       <c r="F14" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W14" t="n">
-        <v>2360.327577447737</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X14" t="n">
-        <v>2182.403674944107</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y14" t="n">
-        <v>2182.403674944107</v>
+        <v>673.2607362976731</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.5713050663908</v>
+        <v>542.571305066391</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.1148439030333</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495865</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.9041403765402</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927018</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280532</v>
+        <v>945.2284211280535</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669334</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461541</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.655226289377</v>
+        <v>894.4683967363985</v>
       </c>
       <c r="C16" t="n">
-        <v>345.4286049681161</v>
+        <v>721.9066852196235</v>
       </c>
       <c r="D16" t="n">
-        <v>179.5506121696388</v>
+        <v>556.0286924211462</v>
       </c>
       <c r="E16" t="n">
-        <v>179.5506121696388</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F16" t="n">
-        <v>179.5506121696388</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G16" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L16" t="n">
-        <v>733.4227107706872</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M16" t="n">
-        <v>1317.603786189002</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N16" t="n">
-        <v>1887.361501150536</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O16" t="n">
-        <v>2005.127382498298</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774552</v>
+        <v>1831.124845221573</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1559.098440807865</v>
       </c>
       <c r="X16" t="n">
-        <v>890.8935156942559</v>
+        <v>1313.706686141277</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083642</v>
+        <v>1086.287015455386</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>506.3558941930748</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="C17" t="n">
-        <v>506.3558941930748</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D17" t="n">
-        <v>70.44610936751934</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E17" t="n">
-        <v>70.44610936751934</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001353</v>
@@ -5545,22 +5545,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U17" t="n">
-        <v>2101.256885969251</v>
+        <v>2106.878152193703</v>
       </c>
       <c r="V17" t="n">
-        <v>1738.639935903077</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="W17" t="n">
-        <v>1333.784481314111</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="X17" t="n">
-        <v>914.6420178934214</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="Y17" t="n">
-        <v>506.3558941930748</v>
+        <v>1744.26120212753</v>
       </c>
     </row>
     <row r="18">
@@ -5573,25 +5573,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.081764785142</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C19" t="n">
-        <v>559.5496021349386</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D19" t="n">
-        <v>393.6716093364613</v>
+        <v>305.7772334908988</v>
       </c>
       <c r="E19" t="n">
-        <v>223.9136055871985</v>
+        <v>305.7772334908988</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895474</v>
+        <v>305.7772334908988</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>320.0013704257351</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.33113894078</v>
+        <v>862.082053811994</v>
       </c>
       <c r="M19" t="n">
-        <v>1690.512214359095</v>
+        <v>992.6864461505235</v>
       </c>
       <c r="N19" t="n">
-        <v>1887.361501150537</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O19" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.320054190021</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y19" t="n">
-        <v>807.9003835041292</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2360.327577447737</v>
+        <v>1754.536245353315</v>
       </c>
       <c r="C20" t="n">
-        <v>1922.18510463116</v>
+        <v>1316.393772536738</v>
       </c>
       <c r="D20" t="n">
-        <v>1486.275319805604</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E20" t="n">
-        <v>1052.500574963899</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F20" t="n">
-        <v>624.6331453731073</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>225.1304540525844</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L20" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
         <v>1131.588690455489</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030332</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668978</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210679</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960903</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
         <v>1614.947661807679</v>
@@ -5873,10 +5873,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>471.6552262893761</v>
+        <v>959.9477806029472</v>
       </c>
       <c r="C22" t="n">
-        <v>471.6552262893761</v>
+        <v>787.3860690861721</v>
       </c>
       <c r="D22" t="n">
-        <v>471.6552262893761</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E22" t="n">
-        <v>471.6552262893761</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F22" t="n">
-        <v>294.9481722511323</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H22" t="n">
         <v>110.3018381127067</v>
@@ -5916,13 +5916,13 @@
         <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9462364092379</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827553</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789087</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O22" t="n">
         <v>2173.32015736263</v>
@@ -5943,19 +5943,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>1911.533332803983</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774551</v>
+        <v>1624.577824674414</v>
       </c>
       <c r="W22" t="n">
-        <v>1136.285270360843</v>
+        <v>1624.577824674414</v>
       </c>
       <c r="X22" t="n">
-        <v>890.893515694255</v>
+        <v>1379.186070007826</v>
       </c>
       <c r="Y22" t="n">
-        <v>663.4738450083632</v>
+        <v>1151.766399321934</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>880.2638341130258</v>
+        <v>1795.567036989589</v>
       </c>
       <c r="C23" t="n">
-        <v>442.1213612964492</v>
+        <v>1357.424564173013</v>
       </c>
       <c r="D23" t="n">
-        <v>442.1213612964492</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="E23" t="n">
-        <v>59.87260491495994</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F23" t="n">
         <v>59.87260491495994</v>
@@ -5989,22 +5989,22 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J23" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K23" t="n">
-        <v>524.9909807888067</v>
+        <v>976.4735309700051</v>
       </c>
       <c r="L23" t="n">
-        <v>818.1068556527073</v>
+        <v>1269.589405833906</v>
       </c>
       <c r="M23" t="n">
-        <v>1144.254743821494</v>
+        <v>1595.737294002693</v>
       </c>
       <c r="N23" t="n">
-        <v>1475.680045797972</v>
+        <v>1927.16259597917</v>
       </c>
       <c r="O23" t="n">
-        <v>1788.635560339264</v>
+        <v>2240.118110520463</v>
       </c>
       <c r="P23" t="n">
         <v>2507.218401699732</v>
@@ -6016,25 +6016,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S23" t="n">
-        <v>2953.163875962794</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="T23" t="n">
-        <v>2741.392624431906</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="U23" t="n">
-        <v>2482.32193295342</v>
+        <v>2641.009070895186</v>
       </c>
       <c r="V23" t="n">
-        <v>2119.704982887247</v>
+        <v>2641.009070895186</v>
       </c>
       <c r="W23" t="n">
-        <v>1714.84952829828</v>
+        <v>2641.009070895186</v>
       </c>
       <c r="X23" t="n">
-        <v>1714.84952829828</v>
+        <v>2221.866607474497</v>
       </c>
       <c r="Y23" t="n">
-        <v>1306.563404597934</v>
+        <v>2221.866607474497</v>
       </c>
     </row>
     <row r="24">
@@ -6071,7 +6071,7 @@
         <v>187.9826804329032</v>
       </c>
       <c r="K24" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L24" t="n">
         <v>564.2447313620956</v>
@@ -6126,43 +6126,43 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C25" t="n">
-        <v>932.3961830728609</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D25" t="n">
-        <v>766.5181902743836</v>
+        <v>766.5181902743841</v>
       </c>
       <c r="E25" t="n">
-        <v>596.7601865251208</v>
+        <v>596.7601865251213</v>
       </c>
       <c r="F25" t="n">
-        <v>420.0531324868771</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G25" t="n">
-        <v>255.3119520993955</v>
+        <v>255.311952099396</v>
       </c>
       <c r="H25" t="n">
-        <v>122.9678914787114</v>
+        <v>122.9678914787119</v>
       </c>
       <c r="I25" t="n">
         <v>59.87260491495994</v>
       </c>
       <c r="J25" t="n">
-        <v>205.3579537818329</v>
+        <v>118.7782686171431</v>
       </c>
       <c r="K25" t="n">
-        <v>567.2610372221111</v>
+        <v>219.7541432517691</v>
       </c>
       <c r="L25" t="n">
-        <v>1109.34172060837</v>
+        <v>761.8348266380279</v>
       </c>
       <c r="M25" t="n">
-        <v>1699.429980127812</v>
+        <v>1351.92308615747</v>
       </c>
       <c r="N25" t="n">
-        <v>2269.187695089347</v>
+        <v>1921.680801119005</v>
       </c>
       <c r="O25" t="n">
-        <v>2806.62282566289</v>
+        <v>2459.115931692548</v>
       </c>
       <c r="P25" t="n">
         <v>2907.391881840573</v>
@@ -6174,25 +6174,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S25" t="n">
-        <v>2849.203707252231</v>
+        <v>2849.203707252232</v>
       </c>
       <c r="T25" t="n">
         <v>2606.956483155638</v>
       </c>
       <c r="U25" t="n">
-        <v>2328.56985120438</v>
+        <v>2328.569851204381</v>
       </c>
       <c r="V25" t="n">
         <v>2041.614343074811</v>
       </c>
       <c r="W25" t="n">
-        <v>1769.587938661102</v>
+        <v>1769.587938661103</v>
       </c>
       <c r="X25" t="n">
         <v>1524.196183994515</v>
       </c>
       <c r="Y25" t="n">
-        <v>1296.776513308623</v>
+        <v>1296.776513308624</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2140.022297673481</v>
+        <v>925.8825073223288</v>
       </c>
       <c r="C26" t="n">
-        <v>2026.648806949625</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.739022124069</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="E26" t="n">
-        <v>1156.964277282364</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F26" t="n">
-        <v>729.0968476915723</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="G26" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H26" t="n">
         <v>59.87260491495994</v>
@@ -6229,7 +6229,7 @@
         <v>723.9740178625037</v>
       </c>
       <c r="K26" t="n">
-        <v>976.4735309700052</v>
+        <v>976.4735309700051</v>
       </c>
       <c r="L26" t="n">
         <v>1269.589405833906</v>
@@ -6253,25 +6253,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S26" t="n">
-        <v>2953.163875962794</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="T26" t="n">
-        <v>2953.163875962794</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="U26" t="n">
-        <v>2953.163875962794</v>
+        <v>2538.796945883066</v>
       </c>
       <c r="V26" t="n">
-        <v>2953.163875962794</v>
+        <v>2176.179995816892</v>
       </c>
       <c r="W26" t="n">
-        <v>2548.308421373828</v>
+        <v>1771.324541227926</v>
       </c>
       <c r="X26" t="n">
-        <v>2548.308421373828</v>
+        <v>1352.182077807237</v>
       </c>
       <c r="Y26" t="n">
-        <v>2140.022297673481</v>
+        <v>1352.182077807237</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>555.2373584323961</v>
+        <v>555.2373584323959</v>
       </c>
       <c r="C27" t="n">
-        <v>448.7808972690384</v>
+        <v>448.7808972690382</v>
       </c>
       <c r="D27" t="n">
-        <v>353.6906084155917</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E27" t="n">
-        <v>259.5701937425454</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F27" t="n">
-        <v>176.186355358707</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G27" t="n">
-        <v>91.8152549483637</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H27" t="n">
         <v>59.87260491495994</v>
       </c>
       <c r="I27" t="n">
-        <v>94.08934108643616</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J27" t="n">
-        <v>187.9826804329034</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K27" t="n">
-        <v>348.4613524870736</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L27" t="n">
-        <v>564.2447313620959</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M27" t="n">
-        <v>816.0537566647931</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N27" t="n">
         <v>1074.527417586113</v>
@@ -6341,16 +6341,16 @@
         <v>1342.334746698865</v>
       </c>
       <c r="V27" t="n">
-        <v>1143.217228760865</v>
+        <v>1143.217228760864</v>
       </c>
       <c r="W27" t="n">
-        <v>957.8944744940586</v>
+        <v>957.8944744940584</v>
       </c>
       <c r="X27" t="n">
-        <v>803.0270387329385</v>
+        <v>803.0270387329383</v>
       </c>
       <c r="Y27" t="n">
-        <v>676.5412595121593</v>
+        <v>676.5412595121591</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1104.957894589637</v>
+        <v>1104.957894589636</v>
       </c>
       <c r="C28" t="n">
-        <v>932.3961830728618</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D28" t="n">
-        <v>766.5181902743846</v>
+        <v>766.5181902743841</v>
       </c>
       <c r="E28" t="n">
-        <v>596.7601865251218</v>
+        <v>596.7601865251213</v>
       </c>
       <c r="F28" t="n">
-        <v>420.053132486878</v>
+        <v>420.0531324868775</v>
       </c>
       <c r="G28" t="n">
         <v>255.3119520993958</v>
@@ -6384,22 +6384,22 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J28" t="n">
-        <v>205.3579537818329</v>
+        <v>118.7782686171431</v>
       </c>
       <c r="K28" t="n">
-        <v>576.9165089205267</v>
+        <v>490.3368237558368</v>
       </c>
       <c r="L28" t="n">
-        <v>1118.997192306786</v>
+        <v>1032.417507142096</v>
       </c>
       <c r="M28" t="n">
-        <v>1709.085451826228</v>
+        <v>1183.730311293139</v>
       </c>
       <c r="N28" t="n">
-        <v>2278.843166787762</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O28" t="n">
-        <v>2396.609048135524</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P28" t="n">
         <v>2739.199106976242</v>
@@ -6420,13 +6420,13 @@
         <v>2328.569851204381</v>
       </c>
       <c r="V28" t="n">
-        <v>2041.614343074812</v>
+        <v>2041.614343074811</v>
       </c>
       <c r="W28" t="n">
         <v>1769.587938661103</v>
       </c>
       <c r="X28" t="n">
-        <v>1524.196183994516</v>
+        <v>1524.196183994515</v>
       </c>
       <c r="Y28" t="n">
         <v>1296.776513308624</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1743.332757253434</v>
+        <v>1203.646414013182</v>
       </c>
       <c r="C29" t="n">
-        <v>1305.190284436857</v>
+        <v>765.503941196605</v>
       </c>
       <c r="D29" t="n">
-        <v>869.2804996113014</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="E29" t="n">
-        <v>869.2804996113014</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="F29" t="n">
-        <v>441.4130700205091</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="G29" t="n">
         <v>329.5941563710495</v>
@@ -6466,49 +6466,49 @@
         <v>288.7193304095858</v>
       </c>
       <c r="K29" t="n">
-        <v>524.9909807888066</v>
+        <v>1029.642816232215</v>
       </c>
       <c r="L29" t="n">
-        <v>818.1068556527073</v>
+        <v>1322.758691096116</v>
       </c>
       <c r="M29" t="n">
-        <v>1144.254743821494</v>
+        <v>1648.906579264903</v>
       </c>
       <c r="N29" t="n">
-        <v>1475.680045797972</v>
+        <v>1980.33188124138</v>
       </c>
       <c r="O29" t="n">
-        <v>1788.635560339264</v>
+        <v>2293.287395782673</v>
       </c>
       <c r="P29" t="n">
-        <v>2055.735851518534</v>
+        <v>2560.387686961942</v>
       </c>
       <c r="Q29" t="n">
-        <v>2707.7995967108</v>
+        <v>2760.968881973009</v>
       </c>
       <c r="R29" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S29" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T29" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="U29" t="n">
-        <v>2993.630245747997</v>
+        <v>2694.093184484308</v>
       </c>
       <c r="V29" t="n">
-        <v>2993.630245747997</v>
+        <v>2694.093184484308</v>
       </c>
       <c r="W29" t="n">
-        <v>2588.77479115903</v>
+        <v>2289.237729895342</v>
       </c>
       <c r="X29" t="n">
-        <v>2169.632327738341</v>
+        <v>1870.095266474652</v>
       </c>
       <c r="Y29" t="n">
-        <v>2169.632327738341</v>
+        <v>1629.945984498089</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>555.2373584323959</v>
+        <v>555.2373584323961</v>
       </c>
       <c r="C30" t="n">
-        <v>448.7808972690382</v>
+        <v>448.7808972690385</v>
       </c>
       <c r="D30" t="n">
-        <v>353.6906084155915</v>
+        <v>353.6906084155917</v>
       </c>
       <c r="E30" t="n">
-        <v>259.5701937425452</v>
+        <v>259.5701937425454</v>
       </c>
       <c r="F30" t="n">
-        <v>176.1863553587068</v>
+        <v>176.186355358707</v>
       </c>
       <c r="G30" t="n">
         <v>91.81525494836369</v>
@@ -6542,16 +6542,16 @@
         <v>94.08934108643605</v>
       </c>
       <c r="J30" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K30" t="n">
-        <v>348.4613524870733</v>
+        <v>348.4613524870732</v>
       </c>
       <c r="L30" t="n">
-        <v>564.2447313620956</v>
+        <v>564.2447313620955</v>
       </c>
       <c r="M30" t="n">
-        <v>816.053756664793</v>
+        <v>816.0537566647929</v>
       </c>
       <c r="N30" t="n">
         <v>1074.527417586113</v>
@@ -6578,16 +6578,16 @@
         <v>1342.334746698865</v>
       </c>
       <c r="V30" t="n">
-        <v>1143.217228760864</v>
+        <v>1143.217228760865</v>
       </c>
       <c r="W30" t="n">
-        <v>957.8944744940584</v>
+        <v>957.8944744940586</v>
       </c>
       <c r="X30" t="n">
-        <v>803.0270387329383</v>
+        <v>803.0270387329385</v>
       </c>
       <c r="Y30" t="n">
-        <v>676.5412595121591</v>
+        <v>676.5412595121593</v>
       </c>
     </row>
     <row r="31">
@@ -6600,46 +6600,46 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C31" t="n">
-        <v>932.3961830728612</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D31" t="n">
-        <v>766.5181902743839</v>
+        <v>766.5181902743841</v>
       </c>
       <c r="E31" t="n">
-        <v>596.7601865251212</v>
+        <v>596.7601865251213</v>
       </c>
       <c r="F31" t="n">
-        <v>420.0531324868774</v>
+        <v>420.0531324868775</v>
       </c>
       <c r="G31" t="n">
         <v>255.311952099396</v>
       </c>
       <c r="H31" t="n">
-        <v>122.9678914787119</v>
+        <v>122.9678914787117</v>
       </c>
       <c r="I31" t="n">
         <v>59.87260491495994</v>
       </c>
       <c r="J31" t="n">
-        <v>195.7024820834178</v>
+        <v>118.7782686171431</v>
       </c>
       <c r="K31" t="n">
-        <v>567.2610372221116</v>
+        <v>215.5783691847013</v>
       </c>
       <c r="L31" t="n">
-        <v>1109.34172060837</v>
+        <v>757.6590525709603</v>
       </c>
       <c r="M31" t="n">
-        <v>1699.429980127813</v>
+        <v>1347.747312090403</v>
       </c>
       <c r="N31" t="n">
-        <v>2269.187695089347</v>
+        <v>1917.505027051937</v>
       </c>
       <c r="O31" t="n">
-        <v>2806.622825662891</v>
+        <v>2454.94015762548</v>
       </c>
       <c r="P31" t="n">
-        <v>2907.391881840574</v>
+        <v>2903.216107773505</v>
       </c>
       <c r="Q31" t="n">
         <v>2977.159153071229</v>
@@ -6654,7 +6654,7 @@
         <v>2606.956483155638</v>
       </c>
       <c r="U31" t="n">
-        <v>2328.56985120438</v>
+        <v>2328.569851204381</v>
       </c>
       <c r="V31" t="n">
         <v>2041.614343074811</v>
@@ -6666,7 +6666,7 @@
         <v>1524.196183994515</v>
       </c>
       <c r="Y31" t="n">
-        <v>1296.776513308623</v>
+        <v>1296.776513308624</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2159.044551562743</v>
+        <v>869.4074943926829</v>
       </c>
       <c r="C32" t="n">
-        <v>1720.902078746166</v>
+        <v>869.4074943926829</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.739022124069</v>
+        <v>869.4074943926829</v>
       </c>
       <c r="E32" t="n">
-        <v>1156.964277282364</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="F32" t="n">
-        <v>729.0968476915723</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="G32" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H32" t="n">
         <v>59.87260491495994</v>
@@ -6700,52 +6700,52 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J32" t="n">
-        <v>723.9740178625037</v>
+        <v>288.7193304095858</v>
       </c>
       <c r="K32" t="n">
-        <v>976.4735309700052</v>
+        <v>524.9909807888067</v>
       </c>
       <c r="L32" t="n">
-        <v>1269.589405833906</v>
+        <v>818.1068556527074</v>
       </c>
       <c r="M32" t="n">
-        <v>1595.737294002693</v>
+        <v>1144.254743821495</v>
       </c>
       <c r="N32" t="n">
-        <v>1927.16259597917</v>
+        <v>1475.680045797972</v>
       </c>
       <c r="O32" t="n">
-        <v>2240.118110520463</v>
+        <v>1788.635560339265</v>
       </c>
       <c r="P32" t="n">
-        <v>2507.218401699732</v>
+        <v>2055.735851518534</v>
       </c>
       <c r="Q32" t="n">
-        <v>2707.7995967108</v>
+        <v>2796.659337341163</v>
       </c>
       <c r="R32" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S32" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T32" t="n">
-        <v>2993.630245747997</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U32" t="n">
-        <v>2993.630245747997</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="V32" t="n">
-        <v>2993.630245747997</v>
+        <v>2119.704982887247</v>
       </c>
       <c r="W32" t="n">
-        <v>2993.630245747997</v>
+        <v>1714.84952829828</v>
       </c>
       <c r="X32" t="n">
-        <v>2993.630245747997</v>
+        <v>1295.707064877591</v>
       </c>
       <c r="Y32" t="n">
-        <v>2585.34412204765</v>
+        <v>1295.707064877591</v>
       </c>
     </row>
     <row r="33">
@@ -6782,10 +6782,10 @@
         <v>187.9826804329032</v>
       </c>
       <c r="K33" t="n">
-        <v>348.4613524870733</v>
+        <v>348.4613524870734</v>
       </c>
       <c r="L33" t="n">
-        <v>564.2447313620956</v>
+        <v>564.2447313620958</v>
       </c>
       <c r="M33" t="n">
         <v>816.053756664793</v>
@@ -6837,13 +6837,13 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C34" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D34" t="n">
         <v>766.5181902743841</v>
       </c>
       <c r="E34" t="n">
-        <v>596.7601865251214</v>
+        <v>596.7601865251213</v>
       </c>
       <c r="F34" t="n">
         <v>420.0531324868776</v>
@@ -6858,25 +6858,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J34" t="n">
-        <v>205.3579537818329</v>
+        <v>118.7782686171431</v>
       </c>
       <c r="K34" t="n">
-        <v>576.9165089205267</v>
+        <v>219.7541432517691</v>
       </c>
       <c r="L34" t="n">
-        <v>1118.997192306786</v>
+        <v>761.8348266380279</v>
       </c>
       <c r="M34" t="n">
-        <v>1249.601584645315</v>
+        <v>1351.92308615747</v>
       </c>
       <c r="N34" t="n">
-        <v>1819.359299606849</v>
+        <v>1921.680801119005</v>
       </c>
       <c r="O34" t="n">
-        <v>2290.923156828216</v>
+        <v>2459.115931692548</v>
       </c>
       <c r="P34" t="n">
-        <v>2739.199106976241</v>
+        <v>2907.391881840573</v>
       </c>
       <c r="Q34" t="n">
         <v>2977.159153071229</v>
@@ -6885,7 +6885,7 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S34" t="n">
-        <v>2849.203707252232</v>
+        <v>2849.203707252231</v>
       </c>
       <c r="T34" t="n">
         <v>2606.956483155638</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>246.9611658127649</v>
+        <v>904.0542417178229</v>
       </c>
       <c r="C35" t="n">
-        <v>246.9611658127649</v>
+        <v>904.0542417178229</v>
       </c>
       <c r="D35" t="n">
-        <v>47.20655154895472</v>
+        <v>904.0542417178229</v>
       </c>
       <c r="E35" t="n">
-        <v>47.20655154895472</v>
+        <v>904.0542417178229</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895472</v>
+        <v>476.1868121270307</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435803</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867018</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U35" t="n">
-        <v>1849.01926465316</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V35" t="n">
-        <v>1486.402314586986</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W35" t="n">
-        <v>1081.546859998019</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="X35" t="n">
-        <v>1081.546859998019</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="Y35" t="n">
-        <v>673.2607362976727</v>
+        <v>1330.353812202731</v>
       </c>
     </row>
     <row r="36">
@@ -6995,31 +6995,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E36" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G36" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
         <v>551.5786779960906</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.291841223631</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C37" t="n">
-        <v>919.7301297068562</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D37" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E37" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F37" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G37" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
-        <v>116.6355901513728</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>488.1941452900665</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>1030.274828676326</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M37" t="n">
-        <v>1160.879221014855</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N37" t="n">
-        <v>1288.378132818744</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O37" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>2360.327577447736</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="U37" t="n">
-        <v>2315.903797838376</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V37" t="n">
-        <v>2028.948289708806</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W37" t="n">
-        <v>1756.921885295098</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.53013062851</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.110459942618</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2052.622535079674</v>
+        <v>1748.628930102402</v>
       </c>
       <c r="C38" t="n">
-        <v>1614.480062263097</v>
+        <v>1310.486457285825</v>
       </c>
       <c r="D38" t="n">
-        <v>1178.570277437541</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E38" t="n">
-        <v>744.7955325958366</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F38" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
@@ -7177,19 +7177,19 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L38" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
         <v>2043.069798152528</v>
@@ -7198,28 +7198,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U38" t="n">
-        <v>2060.790516184047</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V38" t="n">
-        <v>2060.790516184047</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W38" t="n">
-        <v>2060.790516184047</v>
+        <v>2174.92850058731</v>
       </c>
       <c r="X38" t="n">
-        <v>2060.790516184047</v>
+        <v>2174.92850058731</v>
       </c>
       <c r="Y38" t="n">
-        <v>2060.790516184047</v>
+        <v>2174.92850058731</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>1119.791305117177</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>930.5806015906844</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>762.8256627965029</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
-        <v>765.0997489345754</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
-        <v>858.9930882810424</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R39" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S39" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T39" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U39" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V39" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W39" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X39" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y39" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>616.0817647851411</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C40" t="n">
-        <v>616.0817647851411</v>
+        <v>299.093514772602</v>
       </c>
       <c r="D40" t="n">
-        <v>616.0817647851411</v>
+        <v>133.2155219741246</v>
       </c>
       <c r="E40" t="n">
-        <v>584.0941331591162</v>
+        <v>133.2155219741246</v>
       </c>
       <c r="F40" t="n">
-        <v>407.3870791208724</v>
+        <v>133.2155219741246</v>
       </c>
       <c r="G40" t="n">
-        <v>242.6458987333908</v>
+        <v>133.2155219741246</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092371</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827552</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789086</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.320157362629</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X40" t="n">
-        <v>1035.32005419002</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y40" t="n">
-        <v>807.9003835041283</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1326.330542644783</v>
+        <v>1312.719145276847</v>
       </c>
       <c r="C41" t="n">
-        <v>888.1880698282062</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="D41" t="n">
-        <v>888.1880698282062</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E41" t="n">
-        <v>888.1880698282062</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F41" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001349</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435801</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.324927422801</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867016</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7435,28 +7435,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2108.089956131646</v>
+        <v>2140.147732397882</v>
       </c>
       <c r="U41" t="n">
-        <v>2108.089956131646</v>
+        <v>2140.147732397882</v>
       </c>
       <c r="V41" t="n">
-        <v>1745.473006065472</v>
+        <v>2140.147732397882</v>
       </c>
       <c r="W41" t="n">
-        <v>1745.473006065472</v>
+        <v>2140.147732397882</v>
       </c>
       <c r="X41" t="n">
-        <v>1326.330542644783</v>
+        <v>1721.005268977193</v>
       </c>
       <c r="Y41" t="n">
-        <v>1326.330542644783</v>
+        <v>1312.719145276847</v>
       </c>
     </row>
     <row r="42">
@@ -7469,37 +7469,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>471.6552262893761</v>
+        <v>915.5847871853875</v>
       </c>
       <c r="C43" t="n">
-        <v>299.0935147726011</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="D43" t="n">
-        <v>133.2155219741237</v>
+        <v>577.1450828701352</v>
       </c>
       <c r="E43" t="n">
-        <v>47.20655154895472</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895472</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895472</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>464.145223900383</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>588.016025518681</v>
+        <v>733.4227107706877</v>
       </c>
       <c r="M43" t="n">
-        <v>718.6204178572103</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N43" t="n">
-        <v>1288.378132818744</v>
+        <v>1887.361501150537</v>
       </c>
       <c r="O43" t="n">
-        <v>1825.813263392288</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774551</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="X43" t="n">
-        <v>890.893515694255</v>
+        <v>1133.140739790849</v>
       </c>
       <c r="Y43" t="n">
-        <v>663.4738450083632</v>
+        <v>1107.403405904375</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1889.485634438362</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C44" t="n">
-        <v>1451.343161621786</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D44" t="n">
-        <v>1015.43337679623</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E44" t="n">
-        <v>1015.43337679623</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2148.556325916848</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U44" t="n">
-        <v>1889.485634438362</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V44" t="n">
-        <v>1889.485634438362</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W44" t="n">
-        <v>1889.485634438362</v>
+        <v>1484.630179849397</v>
       </c>
       <c r="X44" t="n">
-        <v>1889.485634438362</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="Y44" t="n">
-        <v>1889.485634438362</v>
+        <v>1355.033554032792</v>
       </c>
     </row>
     <row r="45">
@@ -7706,37 +7706,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987884</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
@@ -7782,58 +7782,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.0817647851411</v>
+        <v>864.4553742723976</v>
       </c>
       <c r="C46" t="n">
-        <v>443.520053268366</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D46" t="n">
-        <v>277.6420604698887</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E46" t="n">
-        <v>277.6420604698887</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F46" t="n">
-        <v>211.9477319364363</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895472</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>358.0754347909397</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9462364092376</v>
+        <v>828.1746199579906</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827552</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789086</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
         <v>2118.080353351143</v>
@@ -7842,16 +7842,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270316</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856608</v>
+        <v>1283.693663677277</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.32005419002</v>
+        <v>1283.693663677277</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041283</v>
+        <v>1056.273992991385</v>
       </c>
     </row>
   </sheetData>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>22.57485173059098</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>31.93963785642832</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>32.32293353690022</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>32.80640785804836</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8303,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>32.02774903798461</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>31.98934614029524</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>32.11623393566916</v>
       </c>
       <c r="P6" t="n">
-        <v>3.44860791821884</v>
+        <v>0.7127653979235333</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>12.05242684019194</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.09090823601084</v>
+        <v>33.13929488736032</v>
       </c>
       <c r="K7" t="n">
-        <v>11.23598444294362</v>
+        <v>32.92093993666036</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8391,10 +8391,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>28.66579765373582</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.86484077010237</v>
+        <v>33.0767082394883</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>11.14042390876191</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.94091896479667</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,25 +8613,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>34.45295969778792</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.043987987274825</v>
       </c>
       <c r="M10" t="n">
-        <v>32.05661388637267</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>32.27675768710763</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>32.96672057477706</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>7.737745354913041</v>
+        <v>34.17160518172662</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>36.36928463638102</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8850,13 +8850,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>70.75030430845885</v>
+        <v>177.8915054291094</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -8865,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>45.75904403825037</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639926</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>118.2717723303425</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>70.05088382580993</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9564,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>156.7304232042868</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M22" t="n">
         <v>458.158265737157</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>16.3917805336165</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>456.0429799810086</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>267.7807907805253</v>
+        <v>4.217953603098778</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9813,7 +9813,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>16.39178053361667</v>
+        <v>16.3917805336165</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -10041,16 +10041,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>20.91758768940758</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>244.2636390535699</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>509.7493287307154</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>456.0429799810087</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>117.1563429200478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>77.70122572350984</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10287,10 +10287,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>4.217953603099431</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>16.39178053361672</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>545.8002937490523</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>81.1053779017102</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>4.217953603098778</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>357.3716928016217</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>10.62967161639892</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10986,16 +10986,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>156.7304232042861</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>176.4173968858557</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>45.75904403825086</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>69.2761957652059</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>141.4680432173446</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.54875961111652</v>
+        <v>10.16751636489438</v>
       </c>
       <c r="C5" t="n">
-        <v>20.27323291946875</v>
+        <v>0.2823275661128406</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>22.5670922989036</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22846,13 +22846,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>1.463223617540233</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>51.67781136449648</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>256.3958317637481</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>28.54824787247432</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>107.1269275599053</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23500,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>237.556160482064</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>238.8063753078887</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>45.87173929355903</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>2.36025632976876</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>62.46433369811443</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23740,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>400.5815930545054</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23785,22 +23785,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>215.2185925777872</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>114.8692533779059</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>100.5937471736739</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>72.01840110951065</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>90.87967246293529</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>111.3145178010427</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>214.1034884008642</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24211,13 +24211,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>51.01072857561343</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>117.0385604749973</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>321.5212922717936</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>15.84855671299809</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24691,10 +24691,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>284.8069398943526</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>166.4554733065457</v>
       </c>
     </row>
     <row r="30">
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>302.6892609214244</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>23.50512121765968</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25159,19 +25159,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7936188561279</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>237.8415423765511</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>114.8692533779057</v>
       </c>
       <c r="U37" t="n">
-        <v>231.6232238184777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>413.9502734867287</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,13 +25447,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>257.323520038605</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>136.3926684020054</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>45.87173929355906</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>253.5490525472717</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>31.73719850357381</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>82.91154299085279</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>199.665513431423</v>
       </c>
     </row>
     <row r="44">
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>127.5761986489279</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735101</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>286.6503792280435</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>109.9025982497434</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>2.952036272461498</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>580823.5401032619</v>
+        <v>593333.9687833637</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358533.0507782201</v>
+        <v>358533.0507782199</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>358533.0507782199</v>
+        <v>358533.0507782201</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>358533.05077822</v>
+        <v>358533.0507782201</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>358533.0507782199</v>
+        <v>358533.0507782201</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>358533.05077822</v>
+        <v>358533.0507782201</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>358533.0507782199</v>
+        <v>358533.0507782201</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>340200.0113783645</v>
+        <v>340200.0113783644</v>
       </c>
       <c r="C2" t="n">
-        <v>342908.2647465534</v>
+        <v>346922.2904488802</v>
       </c>
       <c r="D2" t="n">
-        <v>348495.7579287654</v>
+        <v>348495.7579287655</v>
       </c>
       <c r="E2" t="n">
         <v>204486.8426910626</v>
@@ -26328,10 +26328,10 @@
         <v>204486.8426910625</v>
       </c>
       <c r="G2" t="n">
+        <v>204486.8426910625</v>
+      </c>
+      <c r="H2" t="n">
         <v>204486.8426910626</v>
-      </c>
-      <c r="H2" t="n">
-        <v>204486.8426910625</v>
       </c>
       <c r="I2" t="n">
         <v>245862.5756442386</v>
@@ -26346,16 +26346,16 @@
         <v>245862.5756442386</v>
       </c>
       <c r="M2" t="n">
+        <v>204486.8426910626</v>
+      </c>
+      <c r="N2" t="n">
+        <v>204486.8426910626</v>
+      </c>
+      <c r="O2" t="n">
         <v>204486.8426910625</v>
       </c>
-      <c r="N2" t="n">
-        <v>204486.8426910625</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>204486.8426910626</v>
-      </c>
-      <c r="P2" t="n">
-        <v>204486.8426910625</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14144.82719286287</v>
+        <v>13240.31895886003</v>
       </c>
       <c r="D3" t="n">
-        <v>27489.28712274789</v>
+        <v>28204.34033613116</v>
       </c>
       <c r="E3" t="n">
         <v>512485.5095559817</v>
@@ -26392,13 +26392,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3471.332014400307</v>
+        <v>8616.35134338281</v>
       </c>
       <c r="L3" t="n">
-        <v>7042.810807379003</v>
+        <v>1983.292580592802</v>
       </c>
       <c r="M3" t="n">
-        <v>97299.51484534089</v>
+        <v>97299.51484534095</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>297134.6243696333</v>
+        <v>300021.3701695029</v>
       </c>
       <c r="D4" t="n">
         <v>293893.736373209</v>
       </c>
       <c r="E4" t="n">
+        <v>12946.1632919156</v>
+      </c>
+      <c r="F4" t="n">
         <v>12946.16329191559</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12946.1632919156</v>
       </c>
       <c r="G4" t="n">
         <v>12946.1632919156</v>
       </c>
       <c r="H4" t="n">
-        <v>12946.1632919156</v>
+        <v>12946.16329191559</v>
       </c>
       <c r="I4" t="n">
-        <v>35775.18408734678</v>
+        <v>35775.18408734677</v>
       </c>
       <c r="J4" t="n">
         <v>35775.18408734678</v>
       </c>
       <c r="K4" t="n">
-        <v>35775.18408734679</v>
+        <v>35775.1840873468</v>
       </c>
       <c r="L4" t="n">
-        <v>35775.18408734679</v>
+        <v>35775.18408734677</v>
       </c>
       <c r="M4" t="n">
-        <v>12946.16329191559</v>
+        <v>12946.1632919156</v>
       </c>
       <c r="N4" t="n">
-        <v>12946.16329191559</v>
+        <v>12946.1632919156</v>
       </c>
       <c r="O4" t="n">
-        <v>12946.16329191559</v>
+        <v>12946.1632919156</v>
       </c>
       <c r="P4" t="n">
-        <v>12946.16329191559</v>
+        <v>12946.1632919156</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>34681.96937349491</v>
+        <v>35721.14506712826</v>
       </c>
       <c r="D5" t="n">
         <v>36853.56981021012</v>
@@ -26481,10 +26481,10 @@
         <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
         <v>46051.08120963781</v>
@@ -26502,16 +26502,16 @@
         <v>55677.28176780177</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7841.695066531713</v>
+        <v>7809.788349029975</v>
       </c>
       <c r="C6" t="n">
-        <v>-3053.156189437665</v>
+        <v>-2066.595544610509</v>
       </c>
       <c r="D6" t="n">
-        <v>-9740.83537740165</v>
+        <v>-10455.88859078484</v>
       </c>
       <c r="E6" t="n">
-        <v>-366995.9113664725</v>
+        <v>-367549.7918096945</v>
       </c>
       <c r="F6" t="n">
-        <v>145489.5981895091</v>
+        <v>144935.7177462872</v>
       </c>
       <c r="G6" t="n">
-        <v>145489.5981895092</v>
+        <v>144935.7177462872</v>
       </c>
       <c r="H6" t="n">
-        <v>145489.5981895091</v>
+        <v>144935.7177462872</v>
       </c>
       <c r="I6" t="n">
-        <v>112307.9900748217</v>
+        <v>111913.247066035</v>
       </c>
       <c r="J6" t="n">
-        <v>154410.10978909</v>
+        <v>154015.3667803034</v>
       </c>
       <c r="K6" t="n">
-        <v>150938.7777746897</v>
+        <v>145399.0154369206</v>
       </c>
       <c r="L6" t="n">
-        <v>147367.298981711</v>
+        <v>152032.0741997106</v>
       </c>
       <c r="M6" t="n">
-        <v>48190.08334416826</v>
+        <v>47636.20290094633</v>
       </c>
       <c r="N6" t="n">
-        <v>145489.5981895092</v>
+        <v>144935.7177462872</v>
       </c>
       <c r="O6" t="n">
-        <v>145489.5981895092</v>
+        <v>144935.7177462872</v>
       </c>
       <c r="P6" t="n">
-        <v>145489.5981895092</v>
+        <v>144935.7177462872</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10.74817482675364</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="D3" t="n">
         <v>32.7531020605716</v>
@@ -26758,28 +26758,28 @@
         <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>13.48781516894217</v>
+        <v>33.47872052229808</v>
       </c>
       <c r="D4" t="n">
         <v>41.31500304752735</v>
@@ -26801,10 +26801,10 @@
         <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
         <v>590.0818943619341</v>
@@ -26822,16 +26822,16 @@
         <v>748.4075614369992</v>
       </c>
       <c r="M4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26962,10 +26962,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10.74817482675364</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="D3" t="n">
-        <v>22.00492723381797</v>
+        <v>30.09076906183131</v>
       </c>
       <c r="E3" t="n">
         <v>433.9488260326495</v>
@@ -27014,10 +27014,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>13.48781516894217</v>
+        <v>33.47872052229808</v>
       </c>
       <c r="D4" t="n">
-        <v>27.82718787858518</v>
+        <v>7.836282525229272</v>
       </c>
       <c r="E4" t="n">
         <v>548.7668913144068</v>
@@ -27038,13 +27038,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>13.48781516894217</v>
+        <v>33.47872052229808</v>
       </c>
       <c r="L4" t="n">
-        <v>27.82718787858518</v>
+        <v>7.836282525229272</v>
       </c>
       <c r="M4" t="n">
-        <v>390.4412242393416</v>
+        <v>390.4412242393419</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>13.48781516894217</v>
+        <v>33.47872052229808</v>
       </c>
       <c r="L4" t="n">
-        <v>27.82718787858518</v>
+        <v>7.836282525229272</v>
       </c>
       <c r="M4" t="n">
         <v>548.7668913144068</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3406443199466</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H5" t="n">
-        <v>285.7963414717406</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>81.83073584638468</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T5" t="n">
-        <v>217.6774085831124</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6266229567115</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106.6030469000234</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
         <v>105.3918965517241</v>
@@ -27706,13 +27706,13 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
-        <v>82.55</v>
+        <v>49.07127947770192</v>
       </c>
       <c r="G6" t="n">
-        <v>84.50812012081286</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H6" t="n">
-        <v>41.0950175396052</v>
+        <v>7.784268939055096</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.39146317240922</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T6" t="n">
-        <v>128.7836725849139</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U6" t="n">
-        <v>161.0838453929534</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V6" t="n">
-        <v>183.6385275896785</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W6" t="n">
-        <v>171.5894591233337</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X6" t="n">
-        <v>153.3187614035088</v>
+        <v>123.8307043674687</v>
       </c>
       <c r="Y6" t="n">
-        <v>125.2209214285714</v>
+        <v>91.74220090627334</v>
       </c>
     </row>
     <row r="7">
@@ -27785,16 +27785,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>161.4521683289192</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>152.0359126690207</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H7" t="n">
-        <v>124.8430142011843</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I7" t="n">
-        <v>87.19048149820418</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>6.844344753836006</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.3111804060835</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T7" t="n">
-        <v>243.3378381512871</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6476135419018</v>
+        <v>242.1696883483081</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>250.6072325259757</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>235.8274198472733</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>234.4375559686491</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27934,22 +27934,22 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>64.07689350419679</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F9" t="n">
-        <v>41.23499695247265</v>
+        <v>46.15974531573791</v>
       </c>
       <c r="G9" t="n">
-        <v>47.39342735147601</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>20.19730100379491</v>
+        <v>61.51230405132225</v>
       </c>
       <c r="T9" t="n">
         <v>128.5928940176698</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.5101778475351</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>122.9042098229652</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>126.7454206642428</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -28028,7 +28028,7 @@
         <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
-        <v>137.9780290613614</v>
+        <v>96.66302601383404</v>
       </c>
       <c r="I10" t="n">
         <v>85.99716511640959</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>156.6196485125224</v>
@@ -28073,13 +28073,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>251.4638428195881</v>
       </c>
       <c r="X10" t="n">
         <v>201.6228340723943</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>183.8304709315055</v>
       </c>
     </row>
     <row r="11">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04320874302212514</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4425115394753391</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I5" t="n">
-        <v>1.665805065360481</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
-        <v>3.667288053074096</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K5" t="n">
-        <v>5.496314145200654</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L5" t="n">
-        <v>6.818663714464018</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M5" t="n">
-        <v>7.587077198183735</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N5" t="n">
-        <v>7.709844039295349</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O5" t="n">
-        <v>7.280187100869091</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P5" t="n">
-        <v>6.213471257510377</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.666058148030519</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R5" t="n">
-        <v>2.71421120386357</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9846192316166774</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1891462725793529</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U5" t="n">
-        <v>0.00345669944177001</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02311871566509273</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2232781223444482</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7959733244341136</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J6" t="n">
-        <v>2.184211640972642</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K6" t="n">
-        <v>3.733165590533855</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L6" t="n">
-        <v>5.01970183772112</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M6" t="n">
-        <v>5.85775528058073</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N6" t="n">
-        <v>6.012792632562866</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O6" t="n">
-        <v>5.500530564404759</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P6" t="n">
-        <v>4.41466071327547</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.951083775073942</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R6" t="n">
-        <v>1.435388328750231</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4294200036915247</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0931846477904395</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001520968135861364</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01938195460562131</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1723231964027059</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5828682348672301</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J7" t="n">
-        <v>1.370304190617426</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K7" t="n">
-        <v>2.251830725998547</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L7" t="n">
-        <v>2.881568051093917</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M7" t="n">
-        <v>3.038209484224801</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N7" t="n">
-        <v>2.965967653422033</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O7" t="n">
-        <v>2.739551183710911</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P7" t="n">
-        <v>2.344159309756234</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.622974398839799</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8714831589036632</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3377746088997821</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T7" t="n">
-        <v>0.08281380604220011</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001057197523942982</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32338,7 +32338,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,16 +32782,16 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,16 +33019,16 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33353,28 +33353,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,16 +33493,16 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
@@ -33511,28 +33511,28 @@
         <v>254.3525508108054</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33590,28 +33590,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,28 +33730,28 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916797</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917232</v>
@@ -33760,16 +33760,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33827,28 +33827,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34064,28 +34064,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34301,28 +34301,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646698</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34932,34 +34932,34 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1.253183586229083</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.667288053074096</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K5" t="n">
-        <v>5.496314145200656</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L5" t="n">
-        <v>6.818663714464023</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M5" t="n">
-        <v>7.587077198183735</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N5" t="n">
-        <v>7.709844039295348</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O5" t="n">
-        <v>7.280187100869092</v>
+        <v>24.37816091266738</v>
       </c>
       <c r="P5" t="n">
-        <v>6.213471257510378</v>
+        <v>33.47872052229808</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.666058148030515</v>
+        <v>33.47872052229808</v>
       </c>
       <c r="R5" t="n">
-        <v>2.71421120386357</v>
+        <v>33.47872052229808</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7959733244341136</v>
+        <v>26.52410592632186</v>
       </c>
       <c r="J6" t="n">
-        <v>2.184211640972642</v>
+        <v>0.5410312747723083</v>
       </c>
       <c r="K6" t="n">
-        <v>3.733165590533854</v>
+        <v>0.9247086227794483</v>
       </c>
       <c r="L6" t="n">
-        <v>5.01970183772112</v>
+        <v>1.24338485945885</v>
       </c>
       <c r="M6" t="n">
-        <v>5.857755280580729</v>
+        <v>33.47872052229807</v>
       </c>
       <c r="N6" t="n">
-        <v>6.012792632562867</v>
+        <v>33.47872052229808</v>
       </c>
       <c r="O6" t="n">
-        <v>5.500530564404759</v>
+        <v>33.47872052229808</v>
       </c>
       <c r="P6" t="n">
-        <v>7.863268631494307</v>
+        <v>1.806281002632545</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.95108377507394</v>
+        <v>0.7309862225975223</v>
       </c>
       <c r="R6" t="n">
-        <v>13.48781516894217</v>
+        <v>0.3555470370770593</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>12.46121242662827</v>
+        <v>33.47872052229808</v>
       </c>
       <c r="K7" t="n">
-        <v>13.48781516894217</v>
+        <v>33.47872052229808</v>
       </c>
       <c r="L7" t="n">
-        <v>2.881568051093918</v>
+        <v>0.7137671124819462</v>
       </c>
       <c r="M7" t="n">
-        <v>3.038209484224801</v>
+        <v>0.7525673425783452</v>
       </c>
       <c r="N7" t="n">
-        <v>2.965967653422034</v>
+        <v>0.734672973242553</v>
       </c>
       <c r="O7" t="n">
-        <v>2.739551183710908</v>
+        <v>0.678589401055973</v>
       </c>
       <c r="P7" t="n">
-        <v>2.344159309756236</v>
+        <v>29.24644811628076</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.48781516894217</v>
+        <v>33.47872052229808</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>11.17539134075754</v>
       </c>
       <c r="K8" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L8" t="n">
-        <v>20.77863378260765</v>
+        <v>20.77863378260766</v>
       </c>
       <c r="M8" t="n">
-        <v>23.12023369725968</v>
+        <v>23.12023369725966</v>
       </c>
       <c r="N8" t="n">
         <v>23.49434324994148</v>
       </c>
       <c r="O8" t="n">
-        <v>22.18504210978143</v>
+        <v>22.18504210978145</v>
       </c>
       <c r="P8" t="n">
-        <v>18.93442017160915</v>
+        <v>18.93442017160913</v>
       </c>
       <c r="Q8" t="n">
         <v>14.21896100560221</v>
       </c>
       <c r="R8" t="n">
-        <v>8.271063506783463</v>
+        <v>8.271063506783435</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>13.56600741041745</v>
+        <v>28.75252608797635</v>
       </c>
       <c r="J9" t="n">
         <v>6.655986523460122</v>
@@ -35269,13 +35269,13 @@
         <v>16.76186346679083</v>
       </c>
       <c r="P9" t="n">
-        <v>13.45287318408647</v>
+        <v>13.45287318408649</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.992889456329024</v>
+        <v>8.99288945632901</v>
       </c>
       <c r="R9" t="n">
-        <v>41.31500304752734</v>
+        <v>26.12848436996845</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35333,25 +35333,25 @@
         <v>4.175752044673201</v>
       </c>
       <c r="K10" t="n">
-        <v>6.862043349739427</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L10" t="n">
-        <v>8.781052968829309</v>
+        <v>8.825040956104132</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752736</v>
+        <v>9.258389161154689</v>
       </c>
       <c r="N10" t="n">
+        <v>9.038245360419722</v>
+      </c>
+      <c r="O10" t="n">
+        <v>8.348282472750284</v>
+      </c>
+      <c r="P10" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P10" t="n">
-        <v>14.88114322071377</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4.945718411146316</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
         <v>316.1166813548411</v>
@@ -35430,7 +35430,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
         <v>117.855135640546</v>
@@ -35570,22 +35570,22 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>168.5281836696288</v>
+        <v>275.6693847902793</v>
       </c>
       <c r="L13" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
         <v>70.4719911420766</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916793</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562325</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
@@ -35737,13 +35737,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>170.881065874915</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.3636829242305</v>
+        <v>81.10166275847587</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35907,7 +35907,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>216.0496516915124</v>
       </c>
       <c r="L19" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>198.8376634256983</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
         <v>240.36368292423</v>
@@ -36132,7 +36132,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562317</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
@@ -36211,7 +36211,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36284,16 +36284,16 @@
         <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>281.8524450409514</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M22" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
@@ -36354,16 +36354,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>255.0500132399003</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36375,7 +36375,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>725.8412538994621</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36436,10 +36436,10 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>365.5586701416952</v>
+        <v>101.9958329642687</v>
       </c>
       <c r="L25" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
-        <v>596.0487469893358</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N25" t="n">
         <v>575.5128433954892</v>
@@ -36533,7 +36533,7 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q25" t="n">
         <v>70.4719911420766</v>
@@ -36591,16 +36591,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
         <v>598.8903663599629</v>
       </c>
       <c r="K26" t="n">
-        <v>255.0500132399004</v>
+        <v>255.0500132399003</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916791</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
         <v>375.3116718572664</v>
@@ -36761,16 +36761,16 @@
         <v>547.5562458447059</v>
       </c>
       <c r="M28" t="n">
-        <v>596.0487469893358</v>
+        <v>152.8412163141847</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>346.0505644855734</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q28" t="n">
         <v>240.36368292423</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>748.4075614369992</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36846,16 +36846,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>658.6502476689557</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>288.7178273103004</v>
+        <v>235.0114785605938</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562325</v>
       </c>
       <c r="K30" t="n">
         <v>162.099668741586</v>
@@ -36922,13 +36922,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>137.2018961297554</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>596.0487469893358</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207615</v>
+        <v>74.68994474517604</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,19 +37065,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>598.8903663599629</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>255.0500132399004</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37086,13 +37086,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>748.4075614369995</v>
       </c>
       <c r="R32" t="n">
-        <v>288.7178273103004</v>
+        <v>198.9605135422562</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811313</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572664</v>
+        <v>101.9958329642687</v>
       </c>
       <c r="L34" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247772</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>476.3271285064316</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485101</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,22 +37302,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548411</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916797</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>70.13034202264448</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916787</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37636,16 +37636,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>281.8524450409507</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M40" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561045</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P40" t="n">
         <v>101.7869254320035</v>
@@ -37724,7 +37724,7 @@
         <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37797,13 +37797,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
-        <v>274.1952762470256</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366645</v>
+        <v>170.8810658749154</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N43" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766673</v>
@@ -38028,19 +38028,19 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646698</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
         <v>62.32672164233622</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
-        <v>167.0540751263758</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>266.5900650540092</v>
       </c>
       <c r="M46" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207615</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
